--- a/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
+++ b/InputData/fuels/PEIIR/Pollutant Emissions Intensity Improvement Rate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/fuels/peiir/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/fuels/peiir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B899B183-69E1-BE4D-8FFC-8E4B60E61535}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81A88BD-4717-5748-9AE3-81F0AF639224}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="783" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
